--- a/06-03-2023/data/output/xlsx/Causality for Category/15.xlsx
+++ b/06-03-2023/data/output/xlsx/Causality for Category/15.xlsx
@@ -49,15 +49,12 @@
     <t>Causality</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__0</t>
+    <t>num_of_adds_and_subs__1</t>
   </si>
   <si>
     <t>n/a</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__1</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__2</t>
   </si>
   <si>
@@ -109,7 +106,7 @@
     <t>num_of_adds_and_subs__18</t>
   </si>
   <si>
-    <t>num_of_decimals__0</t>
+    <t>num_of_adds_and_subs__19</t>
   </si>
   <si>
     <t>num_of_decimals__1</t>
@@ -199,7 +196,7 @@
     <t>num_of_decimals__29</t>
   </si>
   <si>
-    <t>num_of_equals__0</t>
+    <t>num_of_decimals__30</t>
   </si>
   <si>
     <t>num_of_equals__1</t>
@@ -241,7 +238,7 @@
     <t>num_of_equals__13</t>
   </si>
   <si>
-    <t>num_of_mults_and_divs__0</t>
+    <t>num_of_equals__14</t>
   </si>
   <si>
     <t>num_of_mults_and_divs__1</t>
@@ -283,7 +280,7 @@
     <t>num_of_mults_and_divs__13</t>
   </si>
   <si>
-    <t>num_of_unknowns__0</t>
+    <t>num_of_mults_and_divs__14</t>
   </si>
   <si>
     <t>num_of_unknowns__1</t>
@@ -322,7 +319,7 @@
     <t>num_of_unknowns__12</t>
   </si>
   <si>
-    <t>pairs_of_parentheses__0</t>
+    <t>num_of_unknowns__13</t>
   </si>
   <si>
     <t>pairs_of_parentheses__1</t>
@@ -365,6 +362,9 @@
   </si>
   <si>
     <t>pairs_of_parentheses__14</t>
+  </si>
+  <si>
+    <t>pairs_of_parentheses__15</t>
   </si>
   <si>
     <t>Number of Additions And Subtractions Chart</t>

--- a/06-03-2023/data/output/xlsx/Causality for Category/15.xlsx
+++ b/06-03-2023/data/output/xlsx/Causality for Category/15.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="183">
   <si>
     <t>Causality Values Chart</t>
   </si>
@@ -52,30 +52,51 @@
     <t>num_of_adds_and_subs__1</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__2</t>
+  </si>
+  <si>
     <t>n/a</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__2</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__3</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__4</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__5</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__6</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__7</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__8</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_adds_and_subs__9</t>
   </si>
   <si>
@@ -112,39 +133,75 @@
     <t>num_of_decimals__1</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_decimals__2</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_decimals__3</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_decimals__4</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_decimals__5</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_decimals__6</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_decimals__7</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_decimals__8</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_decimals__9</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_decimals__10</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__11,num_of_decimals__12,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_decimals__11</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__12,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_decimals__12</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_decimals__13</t>
   </si>
   <si>
@@ -202,33 +259,63 @@
     <t>num_of_equals__1</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_equals__2</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_equals__1,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_equals__3</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_equals__1,num_of_equals__2,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_equals__4</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_equals__5</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_equals__6</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_equals__7</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_equals__8</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_equals__9</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_equals__10</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_equals__11</t>
   </si>
   <si>
@@ -244,39 +331,75 @@
     <t>num_of_mults_and_divs__1</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__2</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__3</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__4</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__5</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__6</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__7</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__8</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__9</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__10</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__11</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__12</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__13</t>
   </si>
   <si>
@@ -289,27 +412,51 @@
     <t>num_of_unknowns__2</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_unknowns__3</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__2,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_unknowns__4</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_unknowns__5</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_unknowns__6</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_unknowns__7</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_unknowns__8</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_unknowns__9</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>num_of_unknowns__10</t>
   </si>
   <si>
@@ -325,19 +472,37 @@
     <t>pairs_of_parentheses__1</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>pairs_of_parentheses__2</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>pairs_of_parentheses__3</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__4,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>pairs_of_parentheses__4</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__5,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>pairs_of_parentheses__5</t>
   </si>
   <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__6</t>
+  </si>
+  <si>
     <t>pairs_of_parentheses__6</t>
+  </si>
+  <si>
+    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_adds_and_subs__4,num_of_adds_and_subs__5,num_of_adds_and_subs__6,num_of_adds_and_subs__7,num_of_adds_and_subs__8,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_decimals__4,num_of_decimals__5,num_of_decimals__6,num_of_decimals__7,num_of_decimals__8,num_of_decimals__9,num_of_decimals__10,num_of_decimals__11,num_of_decimals__12,num_of_equals__1,num_of_equals__2,num_of_equals__3,num_of_equals__4,num_of_equals__5,num_of_equals__6,num_of_equals__7,num_of_equals__8,num_of_equals__9,num_of_equals__10,num_of_mults_and_divs__1,num_of_mults_and_divs__2,num_of_mults_and_divs__3,num_of_mults_and_divs__4,num_of_mults_and_divs__5,num_of_mults_and_divs__6,num_of_mults_and_divs__7,num_of_mults_and_divs__8,num_of_mults_and_divs__9,num_of_mults_and_divs__10,num_of_mults_and_divs__11,num_of_mults_and_divs__12,num_of_unknowns__2,num_of_unknowns__3,num_of_unknowns__4,num_of_unknowns__5,num_of_unknowns__6,num_of_unknowns__7,num_of_unknowns__8,num_of_unknowns__9,pairs_of_parentheses__1,pairs_of_parentheses__2,pairs_of_parentheses__3,pairs_of_parentheses__4,pairs_of_parentheses__5</t>
   </si>
   <si>
     <t>pairs_of_parentheses__7</t>
@@ -443,7 +608,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -451,14 +616,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD3CBBE"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD3CBBE"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD3CBBE"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD3CBBE"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,19 +685,67 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>AddsSubs!$C$4:$C$5</c:f>
+              <c:f>AddsSubs!$C$4:$C$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>AddsSubs!$D$4:$D$5</c:f>
+              <c:f>AddsSubs!$D$4:$D$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.02757916241062308</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02542372881355932</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05825242718446602</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.05555555555555555</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.06666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08860759493670886</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.09615384615384616</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -572,7 +801,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 15</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -636,19 +865,91 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>MultsDivs!$C$4:$C$5</c:f>
+              <c:f>MultsDivs!$C$4:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>MultsDivs!$D$4:$D$5</c:f>
+              <c:f>MultsDivs!$D$4:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.05882352941176471</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.07042253521126761</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.06451612903225806</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0684931506849315</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.07407407407407407</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08108108108108109</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1363636363636364</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1176470588235294</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1818181818181818</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3333333333333333</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -704,7 +1005,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 15</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -768,19 +1069,79 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Equations!$C$4:$C$5</c:f>
+              <c:f>Equations!$C$4:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Equations!$D$4:$D$5</c:f>
+              <c:f>Equations!$D$4:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.02708124373119358</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0272452068617558</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04823747680890538</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.06395348837209303</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.09313725490196079</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1176470588235294</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1630434782608696</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.1666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1428571428571428</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.05882352941176471</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -836,7 +1197,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 15</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -900,19 +1261,91 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Decimals!$C$4:$C$5</c:f>
+              <c:f>Decimals!$C$4:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Decimals!$D$4:$D$5</c:f>
+              <c:f>Decimals!$D$4:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0.03054662379421222</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02845528455284553</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0273972602739726</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03952569169960474</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.05389221556886228</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.06349206349206349</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.08235294117647059</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.07692307692307693</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0975609756097561</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.06451612903225806</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.04347826086956522</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.06666666666666667</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -968,7 +1401,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 15</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1032,19 +1465,73 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>Unknowns!$C$4:$C$5</c:f>
+              <c:f>Unknowns!$C$4:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Unknowns!$D$4:$D$5</c:f>
+              <c:f>Unknowns!$D$4:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.02705410821643287</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.03953147877013177</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1153846153846154</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2173913043478261</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2727272727272727</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.2857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1100,7 +1587,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 15</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1164,19 +1651,55 @@
           </c:spPr>
           <c:xVal>
             <c:numRef>
-              <c:f>PairsOfParentheses!$C$4:$C$5</c:f>
+              <c:f>PairsOfParentheses!$C$4:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>PairsOfParentheses!$D$4:$D$5</c:f>
+              <c:f>PairsOfParentheses!$D$4:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0.05276381909547739</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.08280254777070063</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.09302325581395349</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1176470588235294</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1232,7 +1755,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
-                  <a:t>Probability of total failure</a:t>
+                  <a:t>Probability of getting into category 15</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1798,14 +2321,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>0</v>
+        <v>0.02757916241062308</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.1191615215376847</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1819,19 +2344,19 @@
         <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>0</v>
+        <v>0.02542372881355932</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>0.02705410821643287</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1">
         <v>309</v>
@@ -1840,19 +2365,21 @@
         <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>0</v>
+        <v>0.05825242718446602</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1" t="s">
-        <v>10</v>
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-0.02867613438038892</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1">
         <v>198</v>
@@ -1861,19 +2388,21 @@
         <v>4</v>
       </c>
       <c r="D6" s="1">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>10</v>
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-0.03255874635067809</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1">
         <v>105</v>
@@ -1882,19 +2411,21 @@
         <v>5</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1" t="s">
-        <v>10</v>
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="1">
+        <v>-0.004907966878265547</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
         <v>79</v>
@@ -1903,19 +2434,21 @@
         <v>6</v>
       </c>
       <c r="D8" s="1">
-        <v>0</v>
+        <v>0.08860759493670886</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>10</v>
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.0348020784705187</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1">
         <v>52</v>
@@ -1924,19 +2457,21 @@
         <v>7</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
-        <v>10</v>
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0.02808514077953948</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1">
         <v>40</v>
@@ -1945,19 +2480,21 @@
         <v>8</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>10</v>
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.06559192411012481</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1">
         <v>22</v>
@@ -1969,16 +2506,16 @@
         <v>0</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>0.02705410821643287</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1">
         <v>18</v>
@@ -1990,16 +2527,16 @@
         <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>0.02705410821643287</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B13" s="1">
         <v>10</v>
@@ -2011,16 +2548,16 @@
         <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>0.02705410821643287</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B14" s="1">
         <v>9</v>
@@ -2032,16 +2569,16 @@
         <v>0</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>0.02705410821643287</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B15" s="1">
         <v>8</v>
@@ -2053,16 +2590,16 @@
         <v>0</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>0.02705410821643287</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B16" s="1">
         <v>7</v>
@@ -2074,16 +2611,16 @@
         <v>0</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>0.02705410821643287</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B17" s="1">
         <v>6</v>
@@ -2095,16 +2632,16 @@
         <v>0</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
+        <v>0.02705410821643287</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B18" s="1">
         <v>4</v>
@@ -2116,16 +2653,16 @@
         <v>0</v>
       </c>
       <c r="E18" s="1">
-        <v>0</v>
+        <v>0.02705410821643287</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B19" s="1">
         <v>2</v>
@@ -2137,16 +2674,16 @@
         <v>0</v>
       </c>
       <c r="E19" s="1">
-        <v>0</v>
+        <v>0.02705410821643287</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B20" s="1">
         <v>2</v>
@@ -2158,16 +2695,16 @@
         <v>0</v>
       </c>
       <c r="E20" s="1">
-        <v>0</v>
+        <v>0.02705410821643287</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B21" s="1">
         <v>2</v>
@@ -2179,16 +2716,16 @@
         <v>0</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
+        <v>0.02705410821643287</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B22" s="1">
         <v>622</v>
@@ -2197,19 +2734,21 @@
         <v>20</v>
       </c>
       <c r="D22" s="1">
-        <v>0</v>
+        <v>0.03054662379421222</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1" t="s">
-        <v>10</v>
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="1">
+        <v>-0.0609053941550784</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B23" s="1">
         <v>492</v>
@@ -2218,19 +2757,21 @@
         <v>21</v>
       </c>
       <c r="D23" s="1">
-        <v>0</v>
+        <v>0.02845528455284553</v>
       </c>
       <c r="E23" s="1">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1" t="s">
-        <v>10</v>
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="1">
+        <v>-0.04716005942180604</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B24" s="1">
         <v>365</v>
@@ -2239,19 +2780,21 @@
         <v>22</v>
       </c>
       <c r="D24" s="1">
-        <v>0</v>
+        <v>0.0273972602739726</v>
       </c>
       <c r="E24" s="1">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1" t="s">
-        <v>10</v>
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="1">
+        <v>-7.997558851903046E-05</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B25" s="1">
         <v>253</v>
@@ -2260,19 +2803,21 @@
         <v>23</v>
       </c>
       <c r="D25" s="1">
-        <v>0</v>
+        <v>0.03952569169960474</v>
       </c>
       <c r="E25" s="1">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1" t="s">
-        <v>10</v>
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.02704891912233575</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B26" s="1">
         <v>167</v>
@@ -2281,19 +2826,21 @@
         <v>24</v>
       </c>
       <c r="D26" s="1">
-        <v>0</v>
+        <v>0.05389221556886228</v>
       </c>
       <c r="E26" s="1">
-        <v>0</v>
-      </c>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1" t="s">
-        <v>10</v>
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.04385992177521253</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B27" s="1">
         <v>126</v>
@@ -2302,19 +2849,21 @@
         <v>25</v>
       </c>
       <c r="D27" s="1">
-        <v>0</v>
+        <v>0.06349206349206349</v>
       </c>
       <c r="E27" s="1">
-        <v>0</v>
-      </c>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1" t="s">
-        <v>10</v>
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="1">
+        <v>-0.03829944679648591</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B28" s="1">
         <v>85</v>
@@ -2323,19 +2872,21 @@
         <v>26</v>
       </c>
       <c r="D28" s="1">
-        <v>0</v>
+        <v>0.08235294117647059</v>
       </c>
       <c r="E28" s="1">
-        <v>0</v>
-      </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1" t="s">
-        <v>10</v>
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="1">
+        <v>0.03437159058491619</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B29" s="1">
         <v>65</v>
@@ -2344,19 +2895,21 @@
         <v>27</v>
       </c>
       <c r="D29" s="1">
-        <v>0</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="E29" s="1">
-        <v>0</v>
-      </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1" t="s">
-        <v>10</v>
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29" s="1">
+        <v>0.0630412822013057</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B30" s="1">
         <v>41</v>
@@ -2365,19 +2918,21 @@
         <v>28</v>
       </c>
       <c r="D30" s="1">
-        <v>0</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="E30" s="1">
-        <v>0</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1" t="s">
-        <v>10</v>
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G30" s="1">
+        <v>0.08599520043591061</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="B31" s="1">
         <v>31</v>
@@ -2386,19 +2941,21 @@
         <v>29</v>
       </c>
       <c r="D31" s="1">
-        <v>0</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="E31" s="1">
-        <v>0</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1" t="s">
-        <v>10</v>
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31" s="1">
+        <v>-0.05142116419593189</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B32" s="1">
         <v>23</v>
@@ -2407,19 +2964,21 @@
         <v>30</v>
       </c>
       <c r="D32" s="1">
-        <v>0</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="E32" s="1">
-        <v>0</v>
-      </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1" t="s">
-        <v>10</v>
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="1">
+        <v>-0.09651399508659048</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B33" s="1">
         <v>15</v>
@@ -2428,19 +2987,21 @@
         <v>31</v>
       </c>
       <c r="D33" s="1">
-        <v>0</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="E33" s="1">
-        <v>0</v>
-      </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1" t="s">
-        <v>10</v>
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G33" s="1">
+        <v>-0.07850973515863159</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="B34" s="1">
         <v>10</v>
@@ -2452,16 +3013,16 @@
         <v>0</v>
       </c>
       <c r="E34" s="1">
-        <v>0</v>
+        <v>0.02705410821643287</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="B35" s="1">
         <v>7</v>
@@ -2473,16 +3034,16 @@
         <v>0</v>
       </c>
       <c r="E35" s="1">
-        <v>0</v>
+        <v>0.02705410821643287</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="B36" s="1">
         <v>6</v>
@@ -2494,16 +3055,16 @@
         <v>0</v>
       </c>
       <c r="E36" s="1">
-        <v>0</v>
+        <v>0.02705410821643287</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="B37" s="1">
         <v>6</v>
@@ -2515,16 +3076,16 @@
         <v>0</v>
       </c>
       <c r="E37" s="1">
-        <v>0</v>
+        <v>0.02705410821643287</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="B38" s="1">
         <v>5</v>
@@ -2536,16 +3097,16 @@
         <v>0</v>
       </c>
       <c r="E38" s="1">
-        <v>0</v>
+        <v>0.02705410821643287</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="B39" s="1">
         <v>4</v>
@@ -2557,16 +3118,16 @@
         <v>0</v>
       </c>
       <c r="E39" s="1">
-        <v>0</v>
+        <v>0.02705410821643287</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="B40" s="1">
         <v>4</v>
@@ -2578,16 +3139,16 @@
         <v>0</v>
       </c>
       <c r="E40" s="1">
-        <v>0</v>
+        <v>0.02705410821643287</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="B41" s="1">
         <v>3</v>
@@ -2599,16 +3160,16 @@
         <v>0</v>
       </c>
       <c r="E41" s="1">
-        <v>0</v>
+        <v>0.02705410821643287</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B42" s="1">
         <v>2</v>
@@ -2620,16 +3181,16 @@
         <v>0</v>
       </c>
       <c r="E42" s="1">
-        <v>0</v>
+        <v>0.02705410821643287</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="B43" s="1">
         <v>2</v>
@@ -2641,16 +3202,16 @@
         <v>0</v>
       </c>
       <c r="E43" s="1">
-        <v>0</v>
+        <v>0.02705410821643287</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="B44" s="1">
         <v>2</v>
@@ -2662,16 +3223,16 @@
         <v>0</v>
       </c>
       <c r="E44" s="1">
-        <v>0</v>
+        <v>0.02705410821643287</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="B45" s="1">
         <v>2</v>
@@ -2683,16 +3244,16 @@
         <v>0</v>
       </c>
       <c r="E45" s="1">
-        <v>0</v>
+        <v>0.02705410821643287</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="B46" s="1">
         <v>1</v>
@@ -2704,16 +3265,16 @@
         <v>0</v>
       </c>
       <c r="E46" s="1">
-        <v>0</v>
+        <v>0.02705410821643287</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="B47" s="1">
         <v>1</v>
@@ -2725,16 +3286,16 @@
         <v>0</v>
       </c>
       <c r="E47" s="1">
-        <v>0</v>
+        <v>0.02705410821643287</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="B48" s="1">
         <v>1</v>
@@ -2746,16 +3307,16 @@
         <v>0</v>
       </c>
       <c r="E48" s="1">
-        <v>0</v>
+        <v>0.02705410821643287</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="B49" s="1">
         <v>1</v>
@@ -2767,16 +3328,16 @@
         <v>0</v>
       </c>
       <c r="E49" s="1">
-        <v>0</v>
+        <v>0.02705410821643287</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="B50" s="1">
         <v>1</v>
@@ -2788,16 +3349,16 @@
         <v>0</v>
       </c>
       <c r="E50" s="1">
-        <v>0</v>
+        <v>0.02705410821643287</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="B51" s="1">
         <v>1</v>
@@ -2809,16 +3370,16 @@
         <v>0</v>
       </c>
       <c r="E51" s="1">
-        <v>0</v>
+        <v>0.02705410821643287</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="B52" s="1">
         <v>997</v>
@@ -2827,19 +3388,21 @@
         <v>50</v>
       </c>
       <c r="D52" s="1">
-        <v>0</v>
+        <v>0.02708124373119358</v>
       </c>
       <c r="E52" s="1">
-        <v>0</v>
-      </c>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1" t="s">
-        <v>10</v>
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0.1157603603894138</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="B53" s="1">
         <v>991</v>
@@ -2848,19 +3411,21 @@
         <v>51</v>
       </c>
       <c r="D53" s="1">
-        <v>0</v>
+        <v>0.0272452068617558</v>
       </c>
       <c r="E53" s="1">
-        <v>0</v>
-      </c>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1" t="s">
-        <v>10</v>
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0.1158598680685047</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="B54" s="1">
         <v>539</v>
@@ -2869,19 +3434,21 @@
         <v>52</v>
       </c>
       <c r="D54" s="1">
-        <v>0</v>
+        <v>0.04823747680890538</v>
       </c>
       <c r="E54" s="1">
-        <v>0</v>
-      </c>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1" t="s">
-        <v>10</v>
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0.1026120088512011</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="B55" s="1">
         <v>344</v>
@@ -2890,19 +3457,21 @@
         <v>53</v>
       </c>
       <c r="D55" s="1">
-        <v>0</v>
+        <v>0.06395348837209303</v>
       </c>
       <c r="E55" s="1">
-        <v>0</v>
-      </c>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1" t="s">
-        <v>10</v>
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0.1174401151064082</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="B56" s="1">
         <v>204</v>
@@ -2911,19 +3480,21 @@
         <v>54</v>
       </c>
       <c r="D56" s="1">
-        <v>0</v>
+        <v>0.09313725490196079</v>
       </c>
       <c r="E56" s="1">
-        <v>0</v>
-      </c>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1" t="s">
-        <v>10</v>
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0.133958382994615</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="B57" s="1">
         <v>136</v>
@@ -2932,19 +3503,21 @@
         <v>55</v>
       </c>
       <c r="D57" s="1">
-        <v>0</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="E57" s="1">
-        <v>0</v>
-      </c>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1" t="s">
-        <v>10</v>
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0.145256715476747</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="B58" s="1">
         <v>92</v>
@@ -2953,19 +3526,21 @@
         <v>56</v>
       </c>
       <c r="D58" s="1">
-        <v>0</v>
+        <v>0.1630434782608696</v>
       </c>
       <c r="E58" s="1">
-        <v>0</v>
-      </c>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1" t="s">
-        <v>10</v>
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0.1824577648265551</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="B59" s="1">
         <v>54</v>
@@ -2974,19 +3549,21 @@
         <v>57</v>
       </c>
       <c r="D59" s="1">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E59" s="1">
-        <v>0</v>
-      </c>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1" t="s">
-        <v>10</v>
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0.1315395496415648</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="B60" s="1">
         <v>35</v>
@@ -2995,19 +3572,21 @@
         <v>58</v>
       </c>
       <c r="D60" s="1">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="E60" s="1">
-        <v>0</v>
-      </c>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1" t="s">
-        <v>10</v>
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0.0662461180468874</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="B61" s="1">
         <v>17</v>
@@ -3016,19 +3595,21 @@
         <v>59</v>
       </c>
       <c r="D61" s="1">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="E61" s="1">
-        <v>0</v>
-      </c>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1" t="s">
-        <v>10</v>
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G61" s="1">
+        <v>-0.08210179027480262</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="B62" s="1">
         <v>9</v>
@@ -3040,16 +3621,16 @@
         <v>0</v>
       </c>
       <c r="E62" s="1">
-        <v>0</v>
+        <v>0.02705410821643287</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="B63" s="1">
         <v>5</v>
@@ -3061,16 +3642,16 @@
         <v>0</v>
       </c>
       <c r="E63" s="1">
-        <v>0</v>
+        <v>0.02705410821643287</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="B64" s="1">
         <v>1</v>
@@ -3082,16 +3663,16 @@
         <v>0</v>
       </c>
       <c r="E64" s="1">
-        <v>0</v>
+        <v>0.02705410821643287</v>
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="B65" s="1">
         <v>1</v>
@@ -3103,16 +3684,16 @@
         <v>0</v>
       </c>
       <c r="E65" s="1">
-        <v>0</v>
+        <v>0.02705410821643287</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="B66" s="1">
         <v>187</v>
@@ -3121,19 +3702,21 @@
         <v>64</v>
       </c>
       <c r="D66" s="1">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="E66" s="1">
-        <v>0</v>
-      </c>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1" t="s">
-        <v>10</v>
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0.09427839669104286</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="B67" s="1">
         <v>142</v>
@@ -3142,19 +3725,21 @@
         <v>65</v>
       </c>
       <c r="D67" s="1">
-        <v>0</v>
+        <v>0.07042253521126761</v>
       </c>
       <c r="E67" s="1">
-        <v>0</v>
-      </c>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1" t="s">
-        <v>10</v>
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0.1042252298226671</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="B68" s="1">
         <v>93</v>
@@ -3163,19 +3748,21 @@
         <v>66</v>
       </c>
       <c r="D68" s="1">
-        <v>0</v>
+        <v>0.06451612903225806</v>
       </c>
       <c r="E68" s="1">
-        <v>0</v>
-      </c>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1" t="s">
-        <v>10</v>
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0.06011384994615016</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="B69" s="1">
         <v>73</v>
@@ -3184,19 +3771,21 @@
         <v>67</v>
       </c>
       <c r="D69" s="1">
-        <v>0</v>
+        <v>0.0684931506849315</v>
       </c>
       <c r="E69" s="1">
-        <v>0</v>
-      </c>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1" t="s">
-        <v>10</v>
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0.04616121430523739</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="B70" s="1">
         <v>54</v>
@@ -3205,19 +3794,21 @@
         <v>68</v>
       </c>
       <c r="D70" s="1">
-        <v>0</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="E70" s="1">
-        <v>0</v>
-      </c>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1" t="s">
-        <v>10</v>
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0.06339643531602192</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="B71" s="1">
         <v>37</v>
@@ -3226,19 +3817,21 @@
         <v>69</v>
       </c>
       <c r="D71" s="1">
-        <v>0</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="E71" s="1">
-        <v>0</v>
-      </c>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1" t="s">
-        <v>10</v>
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0.07076024089805648</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="B72" s="1">
         <v>22</v>
@@ -3247,19 +3840,21 @@
         <v>70</v>
       </c>
       <c r="D72" s="1">
-        <v>0</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="E72" s="1">
-        <v>0</v>
-      </c>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1" t="s">
-        <v>10</v>
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0.1660193805700761</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="B73" s="1">
         <v>17</v>
@@ -3268,19 +3863,21 @@
         <v>71</v>
       </c>
       <c r="D73" s="1">
-        <v>0</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="E73" s="1">
-        <v>0</v>
-      </c>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1" t="s">
-        <v>10</v>
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0.1646698198781655</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>81</v>
+        <v>118</v>
       </c>
       <c r="B74" s="1">
         <v>11</v>
@@ -3289,19 +3886,21 @@
         <v>72</v>
       </c>
       <c r="D74" s="1">
-        <v>0</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="E74" s="1">
-        <v>0</v>
-      </c>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1" t="s">
-        <v>10</v>
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0.2243783663375643</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="B75" s="1">
         <v>8</v>
@@ -3310,19 +3909,21 @@
         <v>73</v>
       </c>
       <c r="D75" s="1">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E75" s="1">
-        <v>0</v>
-      </c>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1" t="s">
-        <v>10</v>
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0.2693002602164283</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="B76" s="1">
         <v>5</v>
@@ -3331,19 +3932,21 @@
         <v>74</v>
       </c>
       <c r="D76" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E76" s="1">
-        <v>0</v>
-      </c>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1" t="s">
-        <v>10</v>
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0.3977950737819314</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="B77" s="1">
         <v>3</v>
@@ -3352,19 +3955,21 @@
         <v>75</v>
       </c>
       <c r="D77" s="1">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="E77" s="1">
-        <v>0</v>
-      </c>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1" t="s">
-        <v>10</v>
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G77" s="1">
+        <v>0.292984195046278</v>
       </c>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="B78" s="1">
         <v>2</v>
@@ -3376,16 +3981,16 @@
         <v>0</v>
       </c>
       <c r="E78" s="1">
-        <v>0</v>
+        <v>0.02705410821643287</v>
       </c>
       <c r="F78" s="1"/>
       <c r="G78" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="B79" s="1">
         <v>1</v>
@@ -3397,16 +4002,16 @@
         <v>0</v>
       </c>
       <c r="E79" s="1">
-        <v>0</v>
+        <v>0.02705410821643287</v>
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="B80" s="1">
         <v>998</v>
@@ -3415,19 +4020,19 @@
         <v>78</v>
       </c>
       <c r="D80" s="1">
-        <v>0</v>
+        <v>0.02705410821643287</v>
       </c>
       <c r="E80" s="1">
-        <v>0</v>
+        <v>0.02705410821643287</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="B81" s="1">
         <v>683</v>
@@ -3436,19 +4041,21 @@
         <v>79</v>
       </c>
       <c r="D81" s="1">
-        <v>0</v>
+        <v>0.03953147877013177</v>
       </c>
       <c r="E81" s="1">
-        <v>0</v>
-      </c>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1" t="s">
-        <v>10</v>
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G81" s="1">
+        <v>0.156940022723742</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>89</v>
+        <v>131</v>
       </c>
       <c r="B82" s="1">
         <v>95</v>
@@ -3457,19 +4064,21 @@
         <v>80</v>
       </c>
       <c r="D82" s="1">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E82" s="1">
-        <v>0</v>
-      </c>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1" t="s">
-        <v>10</v>
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G82" s="1">
+        <v>0.1899770456619273</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="B83" s="1">
         <v>52</v>
@@ -3478,19 +4087,21 @@
         <v>81</v>
       </c>
       <c r="D83" s="1">
-        <v>0</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="E83" s="1">
-        <v>0</v>
-      </c>
-      <c r="F83" s="1"/>
-      <c r="G83" s="1" t="s">
-        <v>10</v>
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G83" s="1">
+        <v>0.1515775488310755</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="B84" s="1">
         <v>23</v>
@@ -3499,19 +4110,21 @@
         <v>82</v>
       </c>
       <c r="D84" s="1">
-        <v>0</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="E84" s="1">
-        <v>0</v>
-      </c>
-      <c r="F84" s="1"/>
-      <c r="G84" s="1" t="s">
-        <v>10</v>
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G84" s="1">
+        <v>0.2691413919187437</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>92</v>
+        <v>137</v>
       </c>
       <c r="B85" s="1">
         <v>14</v>
@@ -3520,19 +4133,21 @@
         <v>83</v>
       </c>
       <c r="D85" s="1">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E85" s="1">
-        <v>0</v>
-      </c>
-      <c r="F85" s="1"/>
-      <c r="G85" s="1" t="s">
-        <v>10</v>
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G85" s="1">
+        <v>0.301520920124442</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="B86" s="1">
         <v>11</v>
@@ -3541,19 +4156,21 @@
         <v>84</v>
       </c>
       <c r="D86" s="1">
-        <v>0</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="E86" s="1">
-        <v>0</v>
-      </c>
-      <c r="F86" s="1"/>
-      <c r="G86" s="1" t="s">
-        <v>10</v>
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G86" s="1">
+        <v>0.242922512808225</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>94</v>
+        <v>141</v>
       </c>
       <c r="B87" s="1">
         <v>7</v>
@@ -3562,19 +4179,21 @@
         <v>85</v>
       </c>
       <c r="D87" s="1">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="E87" s="1">
-        <v>0</v>
-      </c>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1" t="s">
-        <v>10</v>
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G87" s="1">
+        <v>0.2238131970574674</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>95</v>
+        <v>143</v>
       </c>
       <c r="B88" s="1">
         <v>5</v>
@@ -3583,19 +4202,21 @@
         <v>86</v>
       </c>
       <c r="D88" s="1">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E88" s="1">
-        <v>0</v>
-      </c>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1" t="s">
-        <v>10</v>
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G88" s="1">
+        <v>0.2912374219637793</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>96</v>
+        <v>145</v>
       </c>
       <c r="B89" s="1">
         <v>3</v>
@@ -3607,16 +4228,16 @@
         <v>0</v>
       </c>
       <c r="E89" s="1">
-        <v>0</v>
+        <v>0.02705410821643287</v>
       </c>
       <c r="F89" s="1"/>
       <c r="G89" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="B90" s="1">
         <v>2</v>
@@ -3628,16 +4249,16 @@
         <v>0</v>
       </c>
       <c r="E90" s="1">
-        <v>0</v>
+        <v>0.02705410821643287</v>
       </c>
       <c r="F90" s="1"/>
       <c r="G90" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>98</v>
+        <v>147</v>
       </c>
       <c r="B91" s="1">
         <v>1</v>
@@ -3649,16 +4270,16 @@
         <v>0</v>
       </c>
       <c r="E91" s="1">
-        <v>0</v>
+        <v>0.02705410821643287</v>
       </c>
       <c r="F91" s="1"/>
       <c r="G91" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>99</v>
+        <v>148</v>
       </c>
       <c r="B92" s="1">
         <v>1</v>
@@ -3670,16 +4291,16 @@
         <v>0</v>
       </c>
       <c r="E92" s="1">
-        <v>0</v>
+        <v>0.02705410821643287</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>100</v>
+        <v>149</v>
       </c>
       <c r="B93" s="1">
         <v>398</v>
@@ -3688,19 +4309,21 @@
         <v>91</v>
       </c>
       <c r="D93" s="1">
-        <v>0</v>
+        <v>0.05276381909547739</v>
       </c>
       <c r="E93" s="1">
-        <v>0</v>
-      </c>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1" t="s">
-        <v>10</v>
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G93" s="1">
+        <v>0.1250436589964554</v>
       </c>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="B94" s="1">
         <v>157</v>
@@ -3709,19 +4332,21 @@
         <v>92</v>
       </c>
       <c r="D94" s="1">
-        <v>0</v>
+        <v>0.08280254777070063</v>
       </c>
       <c r="E94" s="1">
-        <v>0</v>
-      </c>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1" t="s">
-        <v>10</v>
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="G94" s="1">
+        <v>0.1013352160280648</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>102</v>
+        <v>153</v>
       </c>
       <c r="B95" s="1">
         <v>75</v>
@@ -3730,19 +4355,21 @@
         <v>93</v>
       </c>
       <c r="D95" s="1">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E95" s="1">
-        <v>0</v>
-      </c>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1" t="s">
-        <v>10</v>
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="G95" s="1">
+        <v>0.1238355358397698</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="B96" s="1">
         <v>43</v>
@@ -3751,19 +4378,21 @@
         <v>94</v>
       </c>
       <c r="D96" s="1">
-        <v>0</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="E96" s="1">
-        <v>0</v>
-      </c>
-      <c r="F96" s="1"/>
-      <c r="G96" s="1" t="s">
-        <v>10</v>
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G96" s="1">
+        <v>-0.01422680699262056</v>
       </c>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>104</v>
+        <v>157</v>
       </c>
       <c r="B97" s="1">
         <v>25</v>
@@ -3772,19 +4401,21 @@
         <v>95</v>
       </c>
       <c r="D97" s="1">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="E97" s="1">
-        <v>0</v>
-      </c>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1" t="s">
-        <v>10</v>
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G97" s="1">
+        <v>-0.04725841922026404</v>
       </c>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>105</v>
+        <v>159</v>
       </c>
       <c r="B98" s="1">
         <v>17</v>
@@ -3793,19 +4424,21 @@
         <v>96</v>
       </c>
       <c r="D98" s="1">
-        <v>0</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="E98" s="1">
-        <v>0</v>
-      </c>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1" t="s">
-        <v>10</v>
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G98" s="1">
+        <v>-0.008124229030769233</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>106</v>
+        <v>161</v>
       </c>
       <c r="B99" s="1">
         <v>8</v>
@@ -3817,16 +4450,16 @@
         <v>0</v>
       </c>
       <c r="E99" s="1">
-        <v>0</v>
+        <v>0.02705410821643287</v>
       </c>
       <c r="F99" s="1"/>
       <c r="G99" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>107</v>
+        <v>162</v>
       </c>
       <c r="B100" s="1">
         <v>4</v>
@@ -3838,16 +4471,16 @@
         <v>0</v>
       </c>
       <c r="E100" s="1">
-        <v>0</v>
+        <v>0.02705410821643287</v>
       </c>
       <c r="F100" s="1"/>
       <c r="G100" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>108</v>
+        <v>163</v>
       </c>
       <c r="B101" s="1">
         <v>3</v>
@@ -3859,16 +4492,16 @@
         <v>0</v>
       </c>
       <c r="E101" s="1">
-        <v>0</v>
+        <v>0.02705410821643287</v>
       </c>
       <c r="F101" s="1"/>
       <c r="G101" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>109</v>
+        <v>164</v>
       </c>
       <c r="B102" s="1">
         <v>3</v>
@@ -3880,16 +4513,16 @@
         <v>0</v>
       </c>
       <c r="E102" s="1">
-        <v>0</v>
+        <v>0.02705410821643287</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>110</v>
+        <v>165</v>
       </c>
       <c r="B103" s="1">
         <v>3</v>
@@ -3901,16 +4534,16 @@
         <v>0</v>
       </c>
       <c r="E103" s="1">
-        <v>0</v>
+        <v>0.02705410821643287</v>
       </c>
       <c r="F103" s="1"/>
       <c r="G103" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>111</v>
+        <v>166</v>
       </c>
       <c r="B104" s="1">
         <v>3</v>
@@ -3922,16 +4555,16 @@
         <v>0</v>
       </c>
       <c r="E104" s="1">
-        <v>0</v>
+        <v>0.02705410821643287</v>
       </c>
       <c r="F104" s="1"/>
       <c r="G104" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="1" t="s">
-        <v>112</v>
+        <v>167</v>
       </c>
       <c r="B105" s="1">
         <v>2</v>
@@ -3943,16 +4576,16 @@
         <v>0</v>
       </c>
       <c r="E105" s="1">
-        <v>0</v>
+        <v>0.02705410821643287</v>
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="1" t="s">
-        <v>113</v>
+        <v>168</v>
       </c>
       <c r="B106" s="1">
         <v>1</v>
@@ -3964,16 +4597,16 @@
         <v>0</v>
       </c>
       <c r="E106" s="1">
-        <v>0</v>
+        <v>0.02705410821643287</v>
       </c>
       <c r="F106" s="1"/>
       <c r="G106" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="1" t="s">
-        <v>114</v>
+        <v>169</v>
       </c>
       <c r="B107" s="1">
         <v>1</v>
@@ -3985,11 +4618,11 @@
         <v>0</v>
       </c>
       <c r="E107" s="1">
-        <v>0</v>
+        <v>0.02705410821643287</v>
       </c>
       <c r="F107" s="1"/>
       <c r="G107" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -3999,7 +4632,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4010,7 +4643,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>115</v>
+        <v>170</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4033,25 +4666,369 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>116</v>
+        <v>171</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>118</v>
+        <v>173</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>119</v>
+        <v>174</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>122</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3">
+        <v>979</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.02757916241062308</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.00052505419419022</v>
+      </c>
+      <c r="G4" s="1">
+        <f>1/(POWER(B4,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <f>SQRT((D4-POWER(10,-4))*B4*((1-D4+POWER(10,-4))*B4))</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <f>G4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K4" s="1">
+        <f>I4*J4</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <f>MIN(K4,1-D4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3">
+        <v>826</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.02542372881355932</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F5" s="1">
+        <v>-0.001630379402873541</v>
+      </c>
+      <c r="G5" s="1">
+        <f>1/(POWER(B5,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <f>SQRT((D5-POWER(10,-4))*B5*((1-D5+POWER(10,-4))*B5))</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <f>G5*H5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K5" s="1">
+        <f>I5*J5</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3">
+        <v>309</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.05825242718446602</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.03119831896803316</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3">
+        <v>198</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.02850144733912269</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3">
+        <v>105</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.0396125584502338</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="3">
+        <v>79</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.08860759493670886</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.061553486720276</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3">
+        <v>52</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.09615384615384616</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.06909973793741329</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1/(POWER(B10,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>G10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>MIN(K10,1-D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="3">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.07294589178356714</v>
+      </c>
+      <c r="G11" s="1">
+        <f>1/(POWER(B11,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>G11*H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K11" s="1">
+        <f>I11*J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f>MIN(K11,1-D11)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4062,7 +5039,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4073,7 +5050,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4096,25 +5073,541 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="3">
+        <v>187</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.03176942119533184</v>
+      </c>
+      <c r="G4" s="1">
+        <f>1/(POWER(B4,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <f>SQRT((D4-POWER(10,-4))*B4*((1-D4+POWER(10,-4))*B4))</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <f>G4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K4" s="1">
+        <f>I4*J4</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <f>MIN(K4,1-D4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="3">
+        <v>142</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.07042253521126761</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.04336842699483474</v>
+      </c>
+      <c r="G5" s="1">
+        <f>1/(POWER(B5,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <f>SQRT((D5-POWER(10,-4))*B5*((1-D5+POWER(10,-4))*B5))</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <f>G5*H5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K5" s="1">
+        <f>I5*J5</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="3">
+        <v>93</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.06451612903225806</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.0374620208158252</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="3">
+        <v>73</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.0684931506849315</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.04143904246849864</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="3">
+        <v>54</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.07407407407407407</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.0470199658576412</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" s="3">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.08108108108108109</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.05402697286464822</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="3">
+        <v>22</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.1093095281472035</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1/(POWER(B10,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>G10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>MIN(K10,1-D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="B11" s="3">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.09059295060709655</v>
+      </c>
+      <c r="G11" s="1">
+        <f>1/(POWER(B11,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>G11*H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K11" s="1">
+        <f>I11*J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f>MIN(K11,1-D11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="B12" s="3">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.154764073601749</v>
+      </c>
+      <c r="G12" s="1">
+        <f>1/(POWER(B12,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f>SQRT((D12-POWER(10,-4))*B12*((1-D12+POWER(10,-4))*B12))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f>G12*H12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K12" s="1">
+        <f>I12*J12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <f>MIN(K12,1-D12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="B13" s="3">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.2229458917835671</v>
+      </c>
+      <c r="G13" s="1">
+        <f>1/(POWER(B13,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <f>SQRT((D13-POWER(10,-4))*B13*((1-D13+POWER(10,-4))*B13))</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <f>G13*H13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K13" s="1">
+        <f>I13*J13</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <f>MIN(K13,1-D13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3" t="s">
         <v>122</v>
+      </c>
+      <c r="B14" s="3">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.3729458917835672</v>
+      </c>
+      <c r="G14" s="1">
+        <f>1/(POWER(B14,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <f>SQRT((D14-POWER(10,-4))*B14*((1-D14+POWER(10,-4))*B14))</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <f>G14*H14</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K14" s="1">
+        <f>I14*J14</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <f>MIN(K14,1-D14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="3">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.3062792251169004</v>
+      </c>
+      <c r="G15" s="1">
+        <f>1/(POWER(B15,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <f>SQRT((D15-POWER(10,-4))*B15*((1-D15+POWER(10,-4))*B15))</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <f>G15*H15</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K15" s="1">
+        <f>I15*J15</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <f>MIN(K15,1-D15)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4125,7 +5618,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4136,7 +5629,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>124</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4159,25 +5652,455 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>116</v>
+        <v>171</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>118</v>
+        <v>173</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>119</v>
+        <v>174</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>122</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="3">
+        <v>997</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.02708124373119358</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2.713551476071427E-05</v>
+      </c>
+      <c r="G4" s="1">
+        <f>1/(POWER(B4,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <f>SQRT((D4-POWER(10,-4))*B4*((1-D4+POWER(10,-4))*B4))</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <f>G4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K4" s="1">
+        <f>I4*J4</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <f>MIN(K4,1-D4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="3">
+        <v>991</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.0272452068617558</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.0001910986453229381</v>
+      </c>
+      <c r="G5" s="1">
+        <f>1/(POWER(B5,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <f>SQRT((D5-POWER(10,-4))*B5*((1-D5+POWER(10,-4))*B5))</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <f>G5*H5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K5" s="1">
+        <f>I5*J5</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="3">
+        <v>539</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.04823747680890538</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.02118336859247252</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="3">
+        <v>344</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.06395348837209303</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.03689938015566016</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="3">
+        <v>204</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.09313725490196079</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.06608314668552792</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="3">
+        <v>136</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.09059295060709655</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="3">
+        <v>92</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.1630434782608696</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.1359893700444367</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1/(POWER(B10,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>G10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>MIN(K10,1-D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B11" s="3">
+        <v>54</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.1396125584502338</v>
+      </c>
+      <c r="G11" s="1">
+        <f>1/(POWER(B11,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>G11*H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K11" s="1">
+        <f>I11*J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f>MIN(K11,1-D11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="3">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.11580303464071</v>
+      </c>
+      <c r="G12" s="1">
+        <f>1/(POWER(B12,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f>SQRT((D12-POWER(10,-4))*B12*((1-D12+POWER(10,-4))*B12))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f>G12*H12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K12" s="1">
+        <f>I12*J12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <f>MIN(K12,1-D12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="3">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.05882352941176471</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.03176942119533184</v>
+      </c>
+      <c r="G13" s="1">
+        <f>1/(POWER(B13,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <f>SQRT((D13-POWER(10,-4))*B13*((1-D13+POWER(10,-4))*B13))</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <f>G13*H13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K13" s="1">
+        <f>I13*J13</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <f>MIN(K13,1-D13)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4188,7 +6111,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4199,7 +6122,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4222,25 +6145,541 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>116</v>
+        <v>171</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>118</v>
+        <v>173</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>119</v>
+        <v>174</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>122</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="3">
+        <v>622</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.03054662379421222</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.003492515577779354</v>
+      </c>
+      <c r="G4" s="1">
+        <f>1/(POWER(B4,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <f>SQRT((D4-POWER(10,-4))*B4*((1-D4+POWER(10,-4))*B4))</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <f>G4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K4" s="1">
+        <f>I4*J4</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <f>MIN(K4,1-D4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="3">
+        <v>492</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.02845528455284553</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.001401176336412662</v>
+      </c>
+      <c r="G5" s="1">
+        <f>1/(POWER(B5,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <f>SQRT((D5-POWER(10,-4))*B5*((1-D5+POWER(10,-4))*B5))</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <f>G5*H5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K5" s="1">
+        <f>I5*J5</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="3">
+        <v>365</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.0273972602739726</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.0003431520575397362</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="3">
+        <v>253</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.03952569169960474</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.01247158348317188</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="3">
+        <v>167</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.05389221556886228</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.02683810735242941</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="3">
+        <v>126</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.06349206349206349</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.03643795527563062</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="3">
+        <v>85</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.08235294117647059</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.05529883296003772</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1/(POWER(B10,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>G10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>MIN(K10,1-D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="3">
+        <v>65</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.07692307692307693</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.04986896870664406</v>
+      </c>
+      <c r="G11" s="1">
+        <f>1/(POWER(B11,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>G11*H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K11" s="1">
+        <f>I11*J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f>MIN(K11,1-D11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="3">
+        <v>41</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.0975609756097561</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.07050686739332324</v>
+      </c>
+      <c r="G12" s="1">
+        <f>1/(POWER(B12,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f>SQRT((D12-POWER(10,-4))*B12*((1-D12+POWER(10,-4))*B12))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f>G12*H12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K12" s="1">
+        <f>I12*J12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <f>MIN(K12,1-D12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="3">
+        <v>31</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.06451612903225806</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.0374620208158252</v>
+      </c>
+      <c r="G13" s="1">
+        <f>1/(POWER(B13,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <f>SQRT((D13-POWER(10,-4))*B13*((1-D13+POWER(10,-4))*B13))</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <f>G13*H13</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K13" s="1">
+        <f>I13*J13</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="1">
+        <f>MIN(K13,1-D13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="3">
+        <v>23</v>
+      </c>
+      <c r="C14" s="1">
+        <v>11</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.04347826086956522</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.01642415265313235</v>
+      </c>
+      <c r="G14" s="1">
+        <f>1/(POWER(B14,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <f>SQRT((D14-POWER(10,-4))*B14*((1-D14+POWER(10,-4))*B14))</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <f>G14*H14</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K14" s="1">
+        <f>I14*J14</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="1">
+        <f>MIN(K14,1-D14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="3">
+        <v>15</v>
+      </c>
+      <c r="C15" s="1">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.06666666666666667</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.0396125584502338</v>
+      </c>
+      <c r="G15" s="1">
+        <f>1/(POWER(B15,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <f>SQRT((D15-POWER(10,-4))*B15*((1-D15+POWER(10,-4))*B15))</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <f>G15*H15</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K15" s="1">
+        <f>I15*J15</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="1">
+        <f>MIN(K15,1-D15)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4251,7 +6690,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4262,7 +6701,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>126</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4285,25 +6724,412 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>116</v>
+        <v>171</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>118</v>
+        <v>173</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>119</v>
+        <v>174</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>122</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" s="3">
+        <v>998</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <f>1/(POWER(B4,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <f>SQRT((D4-POWER(10,-4))*B4*((1-D4+POWER(10,-4))*B4))</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <f>G4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K4" s="1">
+        <f>I4*J4</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <f>MIN(K4,1-D4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" s="3">
+        <v>683</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.03953147877013177</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.01247737055369891</v>
+      </c>
+      <c r="G5" s="1">
+        <f>1/(POWER(B5,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <f>SQRT((D5-POWER(10,-4))*B5*((1-D5+POWER(10,-4))*B5))</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <f>G5*H5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K5" s="1">
+        <f>I5*J5</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="3">
+        <v>95</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.1729458917835671</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="3">
+        <v>52</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.1153846153846154</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.08833050716818253</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="3">
+        <v>23</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.2173913043478261</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.1903371961313932</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="3">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.2586601774978529</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="3">
+        <v>11</v>
+      </c>
+      <c r="C10" s="1">
+        <v>7</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.2456731645108398</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1/(POWER(B10,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <f>SQRT((D10-POWER(10,-4))*B10*((1-D10+POWER(10,-4))*B10))</f>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <f>G10*H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K10" s="1">
+        <f>I10*J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1">
+        <f>MIN(K10,1-D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B11" s="3">
+        <v>7</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.2586601774978529</v>
+      </c>
+      <c r="G11" s="1">
+        <f>1/(POWER(B11,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <f>SQRT((D11-POWER(10,-4))*B11*((1-D11+POWER(10,-4))*B11))</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <f>G11*H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K11" s="1">
+        <f>I11*J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="1">
+        <f>MIN(K11,1-D11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="3">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.3729458917835672</v>
+      </c>
+      <c r="G12" s="1">
+        <f>1/(POWER(B12,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <f>SQRT((D12-POWER(10,-4))*B12*((1-D12+POWER(10,-4))*B12))</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <f>G12*H12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K12" s="1">
+        <f>I12*J12</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="1">
+        <f>MIN(K12,1-D12)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4314,7 +7140,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4325,7 +7151,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>127</v>
+        <v>182</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4348,25 +7174,283 @@
         <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>116</v>
+        <v>171</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>118</v>
+        <v>173</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>119</v>
+        <v>174</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>121</v>
+        <v>176</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>122</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="3">
+        <v>398</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.05276381909547739</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.02570971087904452</v>
+      </c>
+      <c r="G4" s="1">
+        <f>1/(POWER(B4,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <f>SQRT((D4-POWER(10,-4))*B4*((1-D4+POWER(10,-4))*B4))</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <f>G4*H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K4" s="1">
+        <f>I4*J4</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <f>MIN(K4,1-D4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="3">
+        <v>157</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.08280254777070063</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.05574843955426777</v>
+      </c>
+      <c r="G5" s="1">
+        <f>1/(POWER(B5,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <f>SQRT((D5-POWER(10,-4))*B5*((1-D5+POWER(10,-4))*B5))</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <f>G5*H5</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K5" s="1">
+        <f>I5*J5</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <f>MIN(K5,1-D5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B6" s="3">
+        <v>75</v>
+      </c>
+      <c r="C6" s="1">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.12</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.09294589178356713</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/(POWER(B6,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <f>SQRT((D6-POWER(10,-4))*B6*((1-D6+POWER(10,-4))*B6))</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <f>G6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K6" s="1">
+        <f>I6*J6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <f>MIN(K6,1-D6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="3">
+        <v>43</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.09302325581395349</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.06596914759752062</v>
+      </c>
+      <c r="G7" s="1">
+        <f>1/(POWER(B7,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <f>SQRT((D7-POWER(10,-4))*B7*((1-D7+POWER(10,-4))*B7))</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <f>G7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K7" s="1">
+        <f>I7*J7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="1">
+        <f>MIN(K7,1-D7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B8" s="3">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.08</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.05294589178356714</v>
+      </c>
+      <c r="G8" s="1">
+        <f>1/(POWER(B8,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <f>SQRT((D8-POWER(10,-4))*B8*((1-D8+POWER(10,-4))*B8))</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <f>G8*H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K8" s="1">
+        <f>I8*J8</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="1">
+        <f>MIN(K8,1-D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B9" s="3">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.1176470588235294</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.02705410821643287</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.09059295060709655</v>
+      </c>
+      <c r="G9" s="1">
+        <f>1/(POWER(B9,1.5))</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <f>SQRT((D9-POWER(10,-4))*B9*((1-D9+POWER(10,-4))*B9))</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <f>G9*H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1.95996398454</v>
+      </c>
+      <c r="K9" s="1">
+        <f>I9*J9</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="1">
+        <f>MIN(K9,1-D9)</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
